--- a/p1.xlsx
+++ b/p1.xlsx
@@ -331,7 +331,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -339,7 +339,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -349,6 +349,9 @@
       <c r="C1">
         <v>3</v>
       </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/p1.xlsx
+++ b/p1.xlsx
@@ -331,15 +331,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -351,6 +351,9 @@
       </c>
       <c r="D1">
         <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/p1.xlsx
+++ b/p1.xlsx
@@ -331,15 +331,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -353,7 +353,10 @@
         <v>4</v>
       </c>
       <c r="E1">
-        <v>5</v>
+        <v>55</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/p1.xlsx
+++ b/p1.xlsx
@@ -331,10 +331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -344,10 +344,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C1">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D1">
         <v>4</v>
@@ -357,6 +357,14 @@
       </c>
       <c r="F1">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>23</v>
+      </c>
+      <c r="F2">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/p1.xlsx
+++ b/p1.xlsx
@@ -344,7 +344,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C1">
         <v>23</v>

--- a/p1.xlsx
+++ b/p1.xlsx
@@ -333,15 +333,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>3</v>

--- a/p1.xlsx
+++ b/p1.xlsx
@@ -333,13 +333,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B1">
         <v>3</v>

--- a/p1.xlsx
+++ b/p1.xlsx
@@ -334,7 +334,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="A1:XFD1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -344,7 +344,7 @@
         <v>33</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C1">
         <v>23</v>
@@ -360,6 +360,9 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>34</v>
+      </c>
       <c r="E2">
         <v>23</v>
       </c>
